--- a/webapp/static/Generate/资金期限表/资金期限表_2018_03.xlsx
+++ b/webapp/static/Generate/资金期限表/资金期限表_2018_03.xlsx
@@ -2687,7 +2687,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="134" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D12" s="34" t="n">
         <v>1</v>
@@ -2711,7 +2711,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="134" t="n">
-        <v>238</v>
+        <v>546</v>
       </c>
       <c r="D13" s="34" t="n">
         <v>1</v>
@@ -2874,7 +2874,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="134" t="n">
-        <v>1340</v>
+        <v>559</v>
       </c>
       <c r="D20" s="34" t="n">
         <v>0.85</v>

--- a/webapp/static/Generate/资金期限表/资金期限表_2018_03.xlsx
+++ b/webapp/static/Generate/资金期限表/资金期限表_2018_03.xlsx
@@ -2618,7 +2618,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="134" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9" s="34" t="n">
         <v>1</v>
@@ -2687,7 +2687,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="134" t="n">
-        <v>55</v>
+        <v>1234</v>
       </c>
       <c r="D12" s="34" t="n">
         <v>1</v>
@@ -2711,7 +2711,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="134" t="n">
-        <v>546</v>
+        <v>234</v>
       </c>
       <c r="D13" s="34" t="n">
         <v>1</v>
@@ -2874,7 +2874,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="134" t="n">
-        <v>559</v>
+        <v>57</v>
       </c>
       <c r="D20" s="34" t="n">
         <v>0.85</v>

--- a/webapp/static/Generate/资金期限表/资金期限表_2018_03.xlsx
+++ b/webapp/static/Generate/资金期限表/资金期限表_2018_03.xlsx
@@ -2687,7 +2687,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="134" t="n">
-        <v>1234</v>
+        <v>2354</v>
       </c>
       <c r="D12" s="34" t="n">
         <v>1</v>
@@ -2711,7 +2711,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="134" t="n">
-        <v>234</v>
+        <v>2344</v>
       </c>
       <c r="D13" s="34" t="n">
         <v>1</v>
